--- a/optimize/Axiory/covid/MA10/NIKKEI/M5/summary_NIKKEI_M5_MA10_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA10/NIKKEI/M5/summary_NIKKEI_M5_MA10_2020_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>atr_window</t>
+    <t>supertrend.atr_window</t>
   </si>
   <si>
-    <t>atr_multiply</t>
+    <t>supertrend.atr_multiply</t>
   </si>
   <si>
-    <t>ma_wndow</t>
+    <t>supertrend.ma_window</t>
+  </si>
+  <si>
+    <t>supertrend.filter_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_window</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_threshold</t>
   </si>
   <si>
     <t>n</t>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,16 +459,28 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4611</v>
+        <v>384</v>
       </c>
       <c r="F2">
-        <v>-334</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0.5061808718282368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>4610</v>
+      </c>
+      <c r="J2">
+        <v>-324</v>
+      </c>
+      <c r="K2">
+        <v>0.5062906724511931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,16 +494,28 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>2451</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>-5104</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.4802121583027336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>2450</v>
+      </c>
+      <c r="J3">
+        <v>-5094</v>
+      </c>
+      <c r="K3">
+        <v>0.4804081632653061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,16 +529,28 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>1232</v>
+        <v>384</v>
       </c>
       <c r="F4">
-        <v>2396</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0.4407467532467532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1231</v>
+      </c>
+      <c r="J4">
+        <v>2406</v>
+      </c>
+      <c r="K4">
+        <v>0.4411047928513404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,16 +564,28 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>728</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>-1844</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.364010989010989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>727</v>
+      </c>
+      <c r="J5">
+        <v>-1834</v>
+      </c>
+      <c r="K5">
+        <v>0.3645116918844566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,16 +599,28 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>533</v>
+        <v>384</v>
       </c>
       <c r="F6">
-        <v>936</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.3602251407129456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>532</v>
+      </c>
+      <c r="J6">
+        <v>946</v>
+      </c>
+      <c r="K6">
+        <v>0.3609022556390977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,16 +634,28 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="F7">
-        <v>-6538</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0.345372460496614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>442</v>
+      </c>
+      <c r="J7">
+        <v>-6528</v>
+      </c>
+      <c r="K7">
+        <v>0.3461538461538461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,16 +669,28 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F8">
-        <v>-2244</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.3454038997214485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>358</v>
+      </c>
+      <c r="J8">
+        <v>-2234</v>
+      </c>
+      <c r="K8">
+        <v>0.3463687150837989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,16 +704,28 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="F9">
-        <v>-2224</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0.3615635179153094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>306</v>
+      </c>
+      <c r="J9">
+        <v>-2214</v>
+      </c>
+      <c r="K9">
+        <v>0.3627450980392157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,16 +739,28 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>269</v>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>-3100</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.4052044609665427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>268</v>
+      </c>
+      <c r="J10">
+        <v>-3090</v>
+      </c>
+      <c r="K10">
+        <v>0.4067164179104478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,16 +774,28 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>4553</v>
+        <v>384</v>
       </c>
       <c r="F11">
-        <v>-3050</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0.499670546892159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>4552</v>
+      </c>
+      <c r="J11">
+        <v>-3040</v>
+      </c>
+      <c r="K11">
+        <v>0.499780316344464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -665,16 +809,28 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>2437</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>-824</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>0.470250307755437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>2436</v>
+      </c>
+      <c r="J12">
+        <v>-814</v>
+      </c>
+      <c r="K12">
+        <v>0.4704433497536946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -688,16 +844,28 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>1293</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>6986</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>0.4508894044856922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1292</v>
+      </c>
+      <c r="J13">
+        <v>6996</v>
+      </c>
+      <c r="K13">
+        <v>0.4512383900928792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -711,16 +879,28 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>784</v>
+        <v>384</v>
       </c>
       <c r="F14">
-        <v>-2466</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.3852040816326531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>783</v>
+      </c>
+      <c r="J14">
+        <v>-2456</v>
+      </c>
+      <c r="K14">
+        <v>0.3856960408684547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,16 +914,28 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>553</v>
+        <v>384</v>
       </c>
       <c r="F15">
-        <v>-4500</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>0.3652802893309223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>552</v>
+      </c>
+      <c r="J15">
+        <v>-4490</v>
+      </c>
+      <c r="K15">
+        <v>0.3659420289855073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,16 +949,28 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="F16">
-        <v>-6364</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0.3476297968397291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>442</v>
+      </c>
+      <c r="J16">
+        <v>-6354</v>
+      </c>
+      <c r="K16">
+        <v>0.3484162895927602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,16 +984,28 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F17">
-        <v>-6140</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>0.3616438356164384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>364</v>
+      </c>
+      <c r="J17">
+        <v>-6130</v>
+      </c>
+      <c r="K17">
+        <v>0.3626373626373626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -803,16 +1019,28 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="F18">
-        <v>-4972</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.3820598006644518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>-4962</v>
+      </c>
+      <c r="K18">
+        <v>0.3833333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -826,16 +1054,28 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="F19">
-        <v>-2712</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.403921568627451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>254</v>
+      </c>
+      <c r="J19">
+        <v>-2702</v>
+      </c>
+      <c r="K19">
+        <v>0.405511811023622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -849,16 +1089,28 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>4495</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>-1142</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.5032258064516129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>4494</v>
+      </c>
+      <c r="J20">
+        <v>-1132</v>
+      </c>
+      <c r="K20">
+        <v>0.5033377837116155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,16 +1124,28 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>2405</v>
+        <v>384</v>
       </c>
       <c r="F21">
-        <v>-800</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>0.4636174636174636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>2404</v>
+      </c>
+      <c r="J21">
+        <v>-790</v>
+      </c>
+      <c r="K21">
+        <v>0.463810316139767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -895,16 +1159,28 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>1314</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>13578</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.4520547945205479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1313</v>
+      </c>
+      <c r="J22">
+        <v>13588</v>
+      </c>
+      <c r="K22">
+        <v>0.4523990860624524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -918,16 +1194,28 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>810</v>
+        <v>384</v>
       </c>
       <c r="F23">
-        <v>-654</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.3975308641975309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>809</v>
+      </c>
+      <c r="J23">
+        <v>-644</v>
+      </c>
+      <c r="K23">
+        <v>0.3980222496909765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -941,16 +1229,28 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>575</v>
+        <v>384</v>
       </c>
       <c r="F24">
-        <v>-2644</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.3930434782608695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>574</v>
+      </c>
+      <c r="J24">
+        <v>-2634</v>
+      </c>
+      <c r="K24">
+        <v>0.3937282229965157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,16 +1264,28 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="F25">
-        <v>-9606</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>0.3644251626898048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>460</v>
+      </c>
+      <c r="J25">
+        <v>-9596</v>
+      </c>
+      <c r="K25">
+        <v>0.3652173913043478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,16 +1299,28 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F26">
-        <v>-3606</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.3808219178082192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>364</v>
+      </c>
+      <c r="J26">
+        <v>-3596</v>
+      </c>
+      <c r="K26">
+        <v>0.3818681318681318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1010,16 +1334,28 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="F27">
-        <v>-5710</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>0.3915857605177994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>308</v>
+      </c>
+      <c r="J27">
+        <v>-5700</v>
+      </c>
+      <c r="K27">
+        <v>0.3928571428571428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1033,16 +1369,28 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>-4778</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.3811320754716981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>264</v>
+      </c>
+      <c r="J28">
+        <v>-4768</v>
+      </c>
+      <c r="K28">
+        <v>0.3825757575757576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1056,16 +1404,28 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>4473</v>
+        <v>384</v>
       </c>
       <c r="F29">
-        <v>-1364</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0.5007824726134585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>4472</v>
+      </c>
+      <c r="J29">
+        <v>-1354</v>
+      </c>
+      <c r="K29">
+        <v>0.5008944543828264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1079,16 +1439,28 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>2423</v>
+        <v>384</v>
       </c>
       <c r="F30">
-        <v>-856</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.4725546842756913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>2422</v>
+      </c>
+      <c r="J30">
+        <v>-846</v>
+      </c>
+      <c r="K30">
+        <v>0.4727497935590421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1102,16 +1474,28 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>1348</v>
+        <v>384</v>
       </c>
       <c r="F31">
-        <v>6542</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.4421364985163205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>1347</v>
+      </c>
+      <c r="J31">
+        <v>6552</v>
+      </c>
+      <c r="K31">
+        <v>0.4424647364513734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,16 +1509,28 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <v>831</v>
+        <v>384</v>
       </c>
       <c r="F32">
-        <v>-334</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.4007220216606498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>830</v>
+      </c>
+      <c r="J32">
+        <v>-324</v>
+      </c>
+      <c r="K32">
+        <v>0.4012048192771084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,16 +1544,28 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>609</v>
+        <v>384</v>
       </c>
       <c r="F33">
-        <v>-5998</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.3645320197044335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>608</v>
+      </c>
+      <c r="J33">
+        <v>-5988</v>
+      </c>
+      <c r="K33">
+        <v>0.3651315789473684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1171,16 +1579,28 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="F34">
-        <v>-5476</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.3731019522776572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>460</v>
+      </c>
+      <c r="J34">
+        <v>-5466</v>
+      </c>
+      <c r="K34">
+        <v>0.3739130434782609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,16 +1614,28 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F35">
-        <v>-4044</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>0.4159779614325069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>362</v>
+      </c>
+      <c r="J35">
+        <v>-4034</v>
+      </c>
+      <c r="K35">
+        <v>0.4171270718232044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1217,16 +1649,28 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="F36">
-        <v>-2658</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.4190476190476191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>314</v>
+      </c>
+      <c r="J36">
+        <v>-2648</v>
+      </c>
+      <c r="K36">
+        <v>0.4203821656050956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1240,16 +1684,28 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="F37">
-        <v>-6024</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>0.3826714801444043</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>276</v>
+      </c>
+      <c r="J37">
+        <v>-6014</v>
+      </c>
+      <c r="K37">
+        <v>0.3840579710144927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1263,16 +1719,28 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>4436</v>
+        <v>384</v>
       </c>
       <c r="F38">
-        <v>-4680</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>0.4990982867448152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>4435</v>
+      </c>
+      <c r="J38">
+        <v>-4670</v>
+      </c>
+      <c r="K38">
+        <v>0.4992108229988726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1286,16 +1754,28 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>2397</v>
+        <v>384</v>
       </c>
       <c r="F39">
-        <v>-448</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>0.475177304964539</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>2396</v>
+      </c>
+      <c r="J39">
+        <v>-438</v>
+      </c>
+      <c r="K39">
+        <v>0.4753756260434057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1309,16 +1789,28 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>1360</v>
+        <v>384</v>
       </c>
       <c r="F40">
-        <v>9694</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>0.4536764705882353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>1359</v>
+      </c>
+      <c r="J40">
+        <v>9704</v>
+      </c>
+      <c r="K40">
+        <v>0.4540103016924209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1332,16 +1824,28 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>841</v>
+        <v>384</v>
       </c>
       <c r="F41">
-        <v>2204</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>0.4185493460166468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>840</v>
+      </c>
+      <c r="J41">
+        <v>2214</v>
+      </c>
+      <c r="K41">
+        <v>0.4190476190476191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,16 +1859,28 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>623</v>
+        <v>384</v>
       </c>
       <c r="F42">
-        <v>-5264</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>0.3723916532905297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>622</v>
+      </c>
+      <c r="J42">
+        <v>-5254</v>
+      </c>
+      <c r="K42">
+        <v>0.3729903536977492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,16 +1894,28 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>459</v>
+        <v>384</v>
       </c>
       <c r="F43">
-        <v>-2376</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>0.3856209150326798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>458</v>
+      </c>
+      <c r="J43">
+        <v>-2366</v>
+      </c>
+      <c r="K43">
+        <v>0.3864628820960699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1401,16 +1929,28 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F44">
-        <v>-6180</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>0.3838120104438642</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>382</v>
+      </c>
+      <c r="J44">
+        <v>-6170</v>
+      </c>
+      <c r="K44">
+        <v>0.3848167539267016</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1424,16 +1964,28 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="F45">
-        <v>-3854</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0.4290220820189274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>316</v>
+      </c>
+      <c r="J45">
+        <v>-3844</v>
+      </c>
+      <c r="K45">
+        <v>0.4303797468354431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1447,16 +1999,28 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <v>281</v>
+        <v>384</v>
       </c>
       <c r="F46">
-        <v>-5574</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0.3701067615658363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>280</v>
+      </c>
+      <c r="J46">
+        <v>-5564</v>
+      </c>
+      <c r="K46">
+        <v>0.3714285714285714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1470,16 +2034,28 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>4432</v>
+        <v>384</v>
       </c>
       <c r="F47">
-        <v>-3208</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0.4995487364620939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>4431</v>
+      </c>
+      <c r="J47">
+        <v>-3198</v>
+      </c>
+      <c r="K47">
+        <v>0.4996614759647935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1493,16 +2069,28 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <v>2405</v>
+        <v>384</v>
       </c>
       <c r="F48">
-        <v>-1916</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>0.474012474012474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>2404</v>
+      </c>
+      <c r="J48">
+        <v>-1906</v>
+      </c>
+      <c r="K48">
+        <v>0.4742096505823628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1516,16 +2104,28 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>1350</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>17616</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>0.4748148148148148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>1349</v>
+      </c>
+      <c r="J49">
+        <v>17626</v>
+      </c>
+      <c r="K49">
+        <v>0.475166790214974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1539,16 +2139,28 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <v>859</v>
+        <v>384</v>
       </c>
       <c r="F50">
-        <v>426</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>0.4109429569266589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>858</v>
+      </c>
+      <c r="J50">
+        <v>436</v>
+      </c>
+      <c r="K50">
+        <v>0.4114219114219114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1562,16 +2174,28 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <v>645</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>-7846</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>0.3643410852713178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>644</v>
+      </c>
+      <c r="J51">
+        <v>-7836</v>
+      </c>
+      <c r="K51">
+        <v>0.3649068322981366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1585,16 +2209,28 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="F52">
-        <v>-2498</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>0.3747323340471092</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>466</v>
+      </c>
+      <c r="J52">
+        <v>-2488</v>
+      </c>
+      <c r="K52">
+        <v>0.3755364806866953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1608,16 +2244,28 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F53">
-        <v>-3516</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0.3989769820971867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>390</v>
+      </c>
+      <c r="J53">
+        <v>-3506</v>
+      </c>
+      <c r="K53">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1631,16 +2279,28 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="F54">
-        <v>-3528</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0.4061538461538461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>324</v>
+      </c>
+      <c r="J54">
+        <v>-3518</v>
+      </c>
+      <c r="K54">
+        <v>0.4074074074074074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1654,16 +2314,28 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="F55">
-        <v>-1052</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0.3957597173144876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>282</v>
+      </c>
+      <c r="J55">
+        <v>-1042</v>
+      </c>
+      <c r="K55">
+        <v>0.3971631205673759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1677,16 +2349,28 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <v>4408</v>
+        <v>384</v>
       </c>
       <c r="F56">
-        <v>-578</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0.5038566243194192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>4407</v>
+      </c>
+      <c r="J56">
+        <v>-568</v>
+      </c>
+      <c r="K56">
+        <v>0.503970955298389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,16 +2384,28 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <v>2403</v>
+        <v>384</v>
       </c>
       <c r="F57">
-        <v>4552</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>0.4798168955472326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>2402</v>
+      </c>
+      <c r="J57">
+        <v>4562</v>
+      </c>
+      <c r="K57">
+        <v>0.4800166527893422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1723,16 +2419,28 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <v>1352</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>13322</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>0.4659763313609467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>1351</v>
+      </c>
+      <c r="J58">
+        <v>13332</v>
+      </c>
+      <c r="K58">
+        <v>0.4663212435233161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1746,16 +2454,28 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <v>863</v>
+        <v>384</v>
       </c>
       <c r="F59">
-        <v>2942</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>0.425260718424102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>862</v>
+      </c>
+      <c r="J59">
+        <v>2952</v>
+      </c>
+      <c r="K59">
+        <v>0.425754060324826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1769,16 +2489,28 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <v>657</v>
+        <v>384</v>
       </c>
       <c r="F60">
-        <v>-5268</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>0.3820395738203957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>656</v>
+      </c>
+      <c r="J60">
+        <v>-5258</v>
+      </c>
+      <c r="K60">
+        <v>0.3826219512195122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1792,16 +2524,28 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>491</v>
+        <v>384</v>
       </c>
       <c r="F61">
-        <v>-3612</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0.374745417515275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>490</v>
+      </c>
+      <c r="J61">
+        <v>-3602</v>
+      </c>
+      <c r="K61">
+        <v>0.3755102040816327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1815,16 +2559,28 @@
         <v>10</v>
       </c>
       <c r="E62">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F62">
-        <v>-4520</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>0.4039900249376558</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>400</v>
+      </c>
+      <c r="J62">
+        <v>-4510</v>
+      </c>
+      <c r="K62">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1838,16 +2594,28 @@
         <v>10</v>
       </c>
       <c r="E63">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F63">
-        <v>-1782</v>
+        <v>40</v>
       </c>
       <c r="G63">
-        <v>0.4117647058823529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>322</v>
+      </c>
+      <c r="J63">
+        <v>-1772</v>
+      </c>
+      <c r="K63">
+        <v>0.4130434782608696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1861,16 +2629,28 @@
         <v>10</v>
       </c>
       <c r="E64">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="F64">
-        <v>-878</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.3942652329749104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>278</v>
+      </c>
+      <c r="J64">
+        <v>-868</v>
+      </c>
+      <c r="K64">
+        <v>0.3956834532374101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1884,16 +2664,28 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <v>4386</v>
+        <v>384</v>
       </c>
       <c r="F65">
-        <v>-204</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>0.5088919288645691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>4385</v>
+      </c>
+      <c r="J65">
+        <v>-194</v>
+      </c>
+      <c r="K65">
+        <v>0.5090079817559863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1907,16 +2699,28 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <v>2399</v>
+        <v>384</v>
       </c>
       <c r="F66">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0.4735306377657357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>2398</v>
+      </c>
+      <c r="J66">
+        <v>240</v>
+      </c>
+      <c r="K66">
+        <v>0.4737281067556297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1930,16 +2734,28 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <v>1370</v>
+        <v>384</v>
       </c>
       <c r="F67">
-        <v>13640</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>0.4598540145985401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>1369</v>
+      </c>
+      <c r="J67">
+        <v>13650</v>
+      </c>
+      <c r="K67">
+        <v>0.4601899196493791</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1953,16 +2769,28 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <v>893</v>
+        <v>384</v>
       </c>
       <c r="F68">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.4176931690929451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>892</v>
+      </c>
+      <c r="J68">
+        <v>118</v>
+      </c>
+      <c r="K68">
+        <v>0.4181614349775785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1976,16 +2804,28 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <v>651</v>
+        <v>384</v>
       </c>
       <c r="F69">
-        <v>-2736</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.3901689708141321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+      <c r="I69">
+        <v>650</v>
+      </c>
+      <c r="J69">
+        <v>-2726</v>
+      </c>
+      <c r="K69">
+        <v>0.3907692307692308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1999,16 +2839,28 @@
         <v>10</v>
       </c>
       <c r="E70">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>-3850</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>0.3827655310621242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>498</v>
+      </c>
+      <c r="J70">
+        <v>-3840</v>
+      </c>
+      <c r="K70">
+        <v>0.3835341365461847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2022,16 +2874,28 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F71">
-        <v>-5110</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>0.3936430317848411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>408</v>
+      </c>
+      <c r="J71">
+        <v>-5100</v>
+      </c>
+      <c r="K71">
+        <v>0.3946078431372549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2045,16 +2909,28 @@
         <v>10</v>
       </c>
       <c r="E72">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>-1568</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>0.4169184290030212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+      <c r="I72">
+        <v>330</v>
+      </c>
+      <c r="J72">
+        <v>-1558</v>
+      </c>
+      <c r="K72">
+        <v>0.4181818181818182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2068,16 +2944,28 @@
         <v>10</v>
       </c>
       <c r="E73">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="F73">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.3929824561403509</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>284</v>
+      </c>
+      <c r="J73">
+        <v>434</v>
+      </c>
+      <c r="K73">
+        <v>0.3943661971830986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2091,16 +2979,28 @@
         <v>10</v>
       </c>
       <c r="E74">
-        <v>4356</v>
+        <v>384</v>
       </c>
       <c r="F74">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>0.511248852157943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>0.2</v>
+      </c>
+      <c r="I74">
+        <v>4355</v>
+      </c>
+      <c r="J74">
+        <v>320</v>
+      </c>
+      <c r="K74">
+        <v>0.5113662456946039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2114,16 +3014,28 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <v>2417</v>
+        <v>384</v>
       </c>
       <c r="F75">
-        <v>-3174</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>0.4791063301613571</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>0.2</v>
+      </c>
+      <c r="I75">
+        <v>2416</v>
+      </c>
+      <c r="J75">
+        <v>-3164</v>
+      </c>
+      <c r="K75">
+        <v>0.4793046357615894</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2137,16 +3049,28 @@
         <v>10</v>
       </c>
       <c r="E76">
-        <v>1368</v>
+        <v>384</v>
       </c>
       <c r="F76">
-        <v>13374</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>0.4590643274853801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>0.2</v>
+      </c>
+      <c r="I76">
+        <v>1367</v>
+      </c>
+      <c r="J76">
+        <v>13384</v>
+      </c>
+      <c r="K76">
+        <v>0.4594001463057791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2160,16 +3084,28 @@
         <v>10</v>
       </c>
       <c r="E77">
-        <v>889</v>
+        <v>384</v>
       </c>
       <c r="F77">
-        <v>1950</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>0.4308211473565804</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>888</v>
+      </c>
+      <c r="J77">
+        <v>1960</v>
+      </c>
+      <c r="K77">
+        <v>0.4313063063063063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2183,16 +3119,28 @@
         <v>10</v>
       </c>
       <c r="E78">
-        <v>659</v>
+        <v>384</v>
       </c>
       <c r="F78">
-        <v>-1890</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>0.377845220030349</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>658</v>
+      </c>
+      <c r="J78">
+        <v>-1880</v>
+      </c>
+      <c r="K78">
+        <v>0.378419452887538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2206,16 +3154,28 @@
         <v>10</v>
       </c>
       <c r="E79">
-        <v>501</v>
+        <v>384</v>
       </c>
       <c r="F79">
-        <v>1578</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.3952095808383234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>500</v>
+      </c>
+      <c r="J79">
+        <v>1588</v>
+      </c>
+      <c r="K79">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2229,16 +3189,28 @@
         <v>10</v>
       </c>
       <c r="E80">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F80">
-        <v>-1648</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0.4049382716049383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0.2</v>
+      </c>
+      <c r="I80">
+        <v>404</v>
+      </c>
+      <c r="J80">
+        <v>-1638</v>
+      </c>
+      <c r="K80">
+        <v>0.405940594059406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2252,16 +3224,28 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="F81">
-        <v>-2496</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>0.3958944281524927</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>0.2</v>
+      </c>
+      <c r="I81">
+        <v>340</v>
+      </c>
+      <c r="J81">
+        <v>-2486</v>
+      </c>
+      <c r="K81">
+        <v>0.3970588235294117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,16 +3259,28 @@
         <v>10</v>
       </c>
       <c r="E82">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="F82">
-        <v>-134</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.3814432989690721</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>290</v>
+      </c>
+      <c r="J82">
+        <v>-124</v>
+      </c>
+      <c r="K82">
+        <v>0.3827586206896552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2298,16 +3294,28 @@
         <v>10</v>
       </c>
       <c r="E83">
-        <v>4365</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>-944</v>
+        <v>40</v>
       </c>
       <c r="G83">
-        <v>0.5124856815578465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>4364</v>
+      </c>
+      <c r="J83">
+        <v>-934</v>
+      </c>
+      <c r="K83">
+        <v>0.5126031164069661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2321,16 +3329,28 @@
         <v>10</v>
       </c>
       <c r="E84">
-        <v>2399</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>-1952</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.4776990412671946</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H84">
+        <v>0.2</v>
+      </c>
+      <c r="I84">
+        <v>2398</v>
+      </c>
+      <c r="J84">
+        <v>-1942</v>
+      </c>
+      <c r="K84">
+        <v>0.4778982485404504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2344,16 +3364,28 @@
         <v>10</v>
       </c>
       <c r="E85">
-        <v>1394</v>
+        <v>384</v>
       </c>
       <c r="F85">
-        <v>13878</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>0.4533715925394548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1393</v>
+      </c>
+      <c r="J85">
+        <v>13888</v>
+      </c>
+      <c r="K85">
+        <v>0.4536970567121321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2367,16 +3399,28 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <v>911</v>
+        <v>384</v>
       </c>
       <c r="F86">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.4259055982436882</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>910</v>
+      </c>
+      <c r="J86">
+        <v>168</v>
+      </c>
+      <c r="K86">
+        <v>0.4263736263736264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2390,16 +3434,28 @@
         <v>10</v>
       </c>
       <c r="E87">
-        <v>667</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>-3706</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>0.3703148425787107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <v>666</v>
+      </c>
+      <c r="J87">
+        <v>-3696</v>
+      </c>
+      <c r="K87">
+        <v>0.3708708708708709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2413,16 +3469,28 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="F88">
-        <v>1066</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0.4011741682974559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>510</v>
+      </c>
+      <c r="J88">
+        <v>1076</v>
+      </c>
+      <c r="K88">
+        <v>0.4019607843137255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2436,16 +3504,28 @@
         <v>10</v>
       </c>
       <c r="E89">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="F89">
-        <v>-2046</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>0.4092009685230024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H89">
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <v>412</v>
+      </c>
+      <c r="J89">
+        <v>-2036</v>
+      </c>
+      <c r="K89">
+        <v>0.4101941747572815</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2459,16 +3539,28 @@
         <v>10</v>
       </c>
       <c r="E90">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F90">
-        <v>-3200</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0.3937677053824363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>352</v>
+      </c>
+      <c r="J90">
+        <v>-3190</v>
+      </c>
+      <c r="K90">
+        <v>0.3948863636363636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2482,16 +3574,28 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="F91">
-        <v>-2760</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0.3770491803278688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>304</v>
+      </c>
+      <c r="J91">
+        <v>-2750</v>
+      </c>
+      <c r="K91">
+        <v>0.3782894736842105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2505,16 +3609,28 @@
         <v>10</v>
       </c>
       <c r="E92">
-        <v>4343</v>
+        <v>384</v>
       </c>
       <c r="F92">
-        <v>1476</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0.5162330186507023</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>4342</v>
+      </c>
+      <c r="J92">
+        <v>1486</v>
+      </c>
+      <c r="K92">
+        <v>0.5163519115614924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2528,16 +3644,28 @@
         <v>10</v>
       </c>
       <c r="E93">
-        <v>2375</v>
+        <v>384</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0.4846315789473684</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>2374</v>
+      </c>
+      <c r="J93">
+        <v>36</v>
+      </c>
+      <c r="K93">
+        <v>0.4848357203032856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2551,16 +3679,28 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <v>1402</v>
+        <v>384</v>
       </c>
       <c r="F94">
-        <v>13734</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0.4550641940085592</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>1401</v>
+      </c>
+      <c r="J94">
+        <v>13744</v>
+      </c>
+      <c r="K94">
+        <v>0.4553890078515346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2574,16 +3714,28 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>915</v>
+        <v>384</v>
       </c>
       <c r="F95">
-        <v>1356</v>
+        <v>40</v>
       </c>
       <c r="G95">
-        <v>0.4295081967213115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>914</v>
+      </c>
+      <c r="J95">
+        <v>1366</v>
+      </c>
+      <c r="K95">
+        <v>0.4299781181619256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2597,16 +3749,28 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>679</v>
+        <v>384</v>
       </c>
       <c r="F96">
-        <v>-1656</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>0.3814432989690721</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>678</v>
+      </c>
+      <c r="J96">
+        <v>-1646</v>
+      </c>
+      <c r="K96">
+        <v>0.3820058997050148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2620,16 +3784,28 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>519</v>
+        <v>384</v>
       </c>
       <c r="F97">
-        <v>2050</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0.4065510597302505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>518</v>
+      </c>
+      <c r="J97">
+        <v>2060</v>
+      </c>
+      <c r="K97">
+        <v>0.4073359073359074</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2643,16 +3819,28 @@
         <v>10</v>
       </c>
       <c r="E98">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="F98">
-        <v>-586</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0.4111922141119221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+      <c r="I98">
+        <v>410</v>
+      </c>
+      <c r="J98">
+        <v>-576</v>
+      </c>
+      <c r="K98">
+        <v>0.4121951219512195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2666,16 +3854,28 @@
         <v>10</v>
       </c>
       <c r="E99">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F99">
-        <v>-2194</v>
+        <v>40</v>
       </c>
       <c r="G99">
-        <v>0.415041782729805</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>358</v>
+      </c>
+      <c r="J99">
+        <v>-2184</v>
+      </c>
+      <c r="K99">
+        <v>0.4162011173184357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2689,16 +3889,28 @@
         <v>10</v>
       </c>
       <c r="E100">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="F100">
-        <v>-6512</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>0.3809523809523809</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <v>314</v>
+      </c>
+      <c r="J100">
+        <v>-6502</v>
+      </c>
+      <c r="K100">
+        <v>0.3821656050955414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,16 +3924,28 @@
         <v>10</v>
       </c>
       <c r="E101">
-        <v>4355</v>
+        <v>384</v>
       </c>
       <c r="F101">
-        <v>1226</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>0.5086107921928817</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+      <c r="I101">
+        <v>4354</v>
+      </c>
+      <c r="J101">
+        <v>1236</v>
+      </c>
+      <c r="K101">
+        <v>0.5087276067983464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2735,16 +3959,28 @@
         <v>10</v>
       </c>
       <c r="E102">
-        <v>2397</v>
+        <v>384</v>
       </c>
       <c r="F102">
-        <v>1304</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>0.476846057571965</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>2396</v>
+      </c>
+      <c r="J102">
+        <v>1314</v>
+      </c>
+      <c r="K102">
+        <v>0.4770450751252087</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,16 +3994,28 @@
         <v>10</v>
       </c>
       <c r="E103">
-        <v>1416</v>
+        <v>384</v>
       </c>
       <c r="F103">
-        <v>9414</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>0.4548022598870056</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+      <c r="I103">
+        <v>1415</v>
+      </c>
+      <c r="J103">
+        <v>9424</v>
+      </c>
+      <c r="K103">
+        <v>0.4551236749116608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2781,16 +4029,28 @@
         <v>10</v>
       </c>
       <c r="E104">
-        <v>929</v>
+        <v>384</v>
       </c>
       <c r="F104">
-        <v>1528</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>0.4230355220667384</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>928</v>
+      </c>
+      <c r="J104">
+        <v>1538</v>
+      </c>
+      <c r="K104">
+        <v>0.4234913793103448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2804,16 +4064,28 @@
         <v>10</v>
       </c>
       <c r="E105">
-        <v>687</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>-144</v>
+        <v>40</v>
       </c>
       <c r="G105">
-        <v>0.3901018922852984</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+      <c r="I105">
+        <v>686</v>
+      </c>
+      <c r="J105">
+        <v>-134</v>
+      </c>
+      <c r="K105">
+        <v>0.39067055393586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2827,16 +4099,28 @@
         <v>10</v>
       </c>
       <c r="E106">
-        <v>527</v>
+        <v>384</v>
       </c>
       <c r="F106">
-        <v>948</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0.4060721062618596</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="I106">
+        <v>526</v>
+      </c>
+      <c r="J106">
+        <v>958</v>
+      </c>
+      <c r="K106">
+        <v>0.4068441064638783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2850,16 +4134,28 @@
         <v>10</v>
       </c>
       <c r="E107">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="F107">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0.4092009685230024</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+      <c r="I107">
+        <v>412</v>
+      </c>
+      <c r="J107">
+        <v>262</v>
+      </c>
+      <c r="K107">
+        <v>0.4101941747572815</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2873,16 +4169,28 @@
         <v>10</v>
       </c>
       <c r="E108">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F108">
-        <v>-3084</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>364</v>
+      </c>
+      <c r="J108">
+        <v>-3074</v>
+      </c>
+      <c r="K108">
+        <v>0.4010989010989011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2896,16 +4204,28 @@
         <v>10</v>
       </c>
       <c r="E109">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="F109">
-        <v>-6450</v>
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>0.3692307692307693</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>324</v>
+      </c>
+      <c r="J109">
+        <v>-6440</v>
+      </c>
+      <c r="K109">
+        <v>0.3703703703703703</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2919,16 +4239,28 @@
         <v>10</v>
       </c>
       <c r="E110">
-        <v>4345</v>
+        <v>384</v>
       </c>
       <c r="F110">
-        <v>-284</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0.5054085155350978</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+      <c r="I110">
+        <v>4344</v>
+      </c>
+      <c r="J110">
+        <v>-274</v>
+      </c>
+      <c r="K110">
+        <v>0.505524861878453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2942,16 +4274,28 @@
         <v>10</v>
       </c>
       <c r="E111">
-        <v>2402</v>
+        <v>384</v>
       </c>
       <c r="F111">
-        <v>-4174</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0.4666944213155704</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+      <c r="I111">
+        <v>2401</v>
+      </c>
+      <c r="J111">
+        <v>-4164</v>
+      </c>
+      <c r="K111">
+        <v>0.4668887963348605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2965,16 +4309,28 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <v>1420</v>
+        <v>384</v>
       </c>
       <c r="F112">
-        <v>8422</v>
+        <v>40</v>
       </c>
       <c r="G112">
-        <v>0.4492957746478873</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="I112">
+        <v>1419</v>
+      </c>
+      <c r="J112">
+        <v>8432</v>
+      </c>
+      <c r="K112">
+        <v>0.4496124031007752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2988,16 +4344,28 @@
         <v>10</v>
       </c>
       <c r="E113">
-        <v>917</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>1196</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>0.4133042529989095</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="I113">
+        <v>916</v>
+      </c>
+      <c r="J113">
+        <v>1206</v>
+      </c>
+      <c r="K113">
+        <v>0.4137554585152838</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3011,16 +4379,28 @@
         <v>10</v>
       </c>
       <c r="E114">
-        <v>695</v>
+        <v>384</v>
       </c>
       <c r="F114">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="G114">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+      <c r="I114">
+        <v>694</v>
+      </c>
+      <c r="J114">
+        <v>124</v>
+      </c>
+      <c r="K114">
+        <v>0.4005763688760807</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,16 +4414,28 @@
         <v>10</v>
       </c>
       <c r="E115">
-        <v>533</v>
+        <v>384</v>
       </c>
       <c r="F115">
-        <v>1302</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>0.4033771106941839</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
+        <v>532</v>
+      </c>
+      <c r="J115">
+        <v>1312</v>
+      </c>
+      <c r="K115">
+        <v>0.4041353383458647</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3057,16 +4449,28 @@
         <v>10</v>
       </c>
       <c r="E116">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F116">
-        <v>1060</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>0.408983451536643</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <v>422</v>
+      </c>
+      <c r="J116">
+        <v>1070</v>
+      </c>
+      <c r="K116">
+        <v>0.4099526066350711</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3080,16 +4484,28 @@
         <v>10</v>
       </c>
       <c r="E117">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F117">
-        <v>-2658</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0.4054794520547945</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="I117">
+        <v>364</v>
+      </c>
+      <c r="J117">
+        <v>-2648</v>
+      </c>
+      <c r="K117">
+        <v>0.4065934065934066</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3103,16 +4519,28 @@
         <v>10</v>
       </c>
       <c r="E118">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="F118">
-        <v>-4950</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0.3730886850152905</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="I118">
+        <v>326</v>
+      </c>
+      <c r="J118">
+        <v>-4940</v>
+      </c>
+      <c r="K118">
+        <v>0.3742331288343558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3126,16 +4554,28 @@
         <v>10</v>
       </c>
       <c r="E119">
-        <v>4353</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>-1852</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0.4987365035607627</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="I119">
+        <v>4352</v>
+      </c>
+      <c r="J119">
+        <v>-1842</v>
+      </c>
+      <c r="K119">
+        <v>0.4988511029411765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3149,16 +4589,28 @@
         <v>10</v>
       </c>
       <c r="E120">
-        <v>2410</v>
+        <v>384</v>
       </c>
       <c r="F120">
-        <v>-2668</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>0.4734439834024896</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>2409</v>
+      </c>
+      <c r="J120">
+        <v>-2658</v>
+      </c>
+      <c r="K120">
+        <v>0.4736405147364052</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3172,16 +4624,28 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <v>1432</v>
+        <v>384</v>
       </c>
       <c r="F121">
-        <v>3360</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>0.4441340782122905</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121">
+        <v>1431</v>
+      </c>
+      <c r="J121">
+        <v>3370</v>
+      </c>
+      <c r="K121">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3195,16 +4659,28 @@
         <v>10</v>
       </c>
       <c r="E122">
-        <v>923</v>
+        <v>384</v>
       </c>
       <c r="F122">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>0.4182015167930661</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="I122">
+        <v>922</v>
+      </c>
+      <c r="J122">
+        <v>196</v>
+      </c>
+      <c r="K122">
+        <v>0.4186550976138829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3218,16 +4694,28 @@
         <v>10</v>
       </c>
       <c r="E123">
-        <v>691</v>
+        <v>384</v>
       </c>
       <c r="F123">
-        <v>878</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>0.4037626628075253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123">
+        <v>690</v>
+      </c>
+      <c r="J123">
+        <v>888</v>
+      </c>
+      <c r="K123">
+        <v>0.4043478260869565</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3241,16 +4729,28 @@
         <v>10</v>
       </c>
       <c r="E124">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="F124">
-        <v>1522</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.3996316758747698</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="I124">
+        <v>542</v>
+      </c>
+      <c r="J124">
+        <v>1532</v>
+      </c>
+      <c r="K124">
+        <v>0.4003690036900369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3264,16 +4764,28 @@
         <v>10</v>
       </c>
       <c r="E125">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="F125">
-        <v>2238</v>
+        <v>40</v>
       </c>
       <c r="G125">
-        <v>0.4168618266978923</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="I125">
+        <v>426</v>
+      </c>
+      <c r="J125">
+        <v>2248</v>
+      </c>
+      <c r="K125">
+        <v>0.4178403755868544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3287,16 +4799,28 @@
         <v>10</v>
       </c>
       <c r="E126">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F126">
-        <v>-3522</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>0.4155495978552279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0.2</v>
+      </c>
+      <c r="I126">
+        <v>372</v>
+      </c>
+      <c r="J126">
+        <v>-3512</v>
+      </c>
+      <c r="K126">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3310,16 +4834,28 @@
         <v>10</v>
       </c>
       <c r="E127">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="F127">
-        <v>-3724</v>
+        <v>40</v>
       </c>
       <c r="G127">
-        <v>0.3860182370820669</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
+        <v>328</v>
+      </c>
+      <c r="J127">
+        <v>-3714</v>
+      </c>
+      <c r="K127">
+        <v>0.3871951219512195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3333,16 +4869,28 @@
         <v>10</v>
       </c>
       <c r="E128">
-        <v>4341</v>
+        <v>384</v>
       </c>
       <c r="F128">
-        <v>1258</v>
+        <v>40</v>
       </c>
       <c r="G128">
-        <v>0.5042616908546418</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <v>0.2</v>
+      </c>
+      <c r="I128">
+        <v>4340</v>
+      </c>
+      <c r="J128">
+        <v>1268</v>
+      </c>
+      <c r="K128">
+        <v>0.5043778801843318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3356,16 +4904,28 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>2408</v>
+        <v>384</v>
       </c>
       <c r="F129">
-        <v>-2742</v>
+        <v>40</v>
       </c>
       <c r="G129">
-        <v>0.4721760797342193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129">
+        <v>2407</v>
+      </c>
+      <c r="J129">
+        <v>-2732</v>
+      </c>
+      <c r="K129">
+        <v>0.4723722476111342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3379,16 +4939,28 @@
         <v>10</v>
       </c>
       <c r="E130">
-        <v>1442</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>2136</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>0.4396671289875174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>0.2</v>
+      </c>
+      <c r="I130">
+        <v>1441</v>
+      </c>
+      <c r="J130">
+        <v>2146</v>
+      </c>
+      <c r="K130">
+        <v>0.4399722414989591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3402,16 +4974,28 @@
         <v>10</v>
       </c>
       <c r="E131">
-        <v>935</v>
+        <v>384</v>
       </c>
       <c r="F131">
-        <v>728</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>0.4106951871657754</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>934</v>
+      </c>
+      <c r="J131">
+        <v>738</v>
+      </c>
+      <c r="K131">
+        <v>0.411134903640257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3425,16 +5009,28 @@
         <v>10</v>
       </c>
       <c r="E132">
-        <v>693</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>-74</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>0.3997113997113997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>692</v>
+      </c>
+      <c r="J132">
+        <v>-64</v>
+      </c>
+      <c r="K132">
+        <v>0.4002890173410404</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3448,16 +5044,28 @@
         <v>10</v>
       </c>
       <c r="E133">
-        <v>551</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>674</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>0.4010889292196007</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133">
+        <v>550</v>
+      </c>
+      <c r="J133">
+        <v>684</v>
+      </c>
+      <c r="K133">
+        <v>0.4018181818181818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3471,16 +5079,28 @@
         <v>10</v>
       </c>
       <c r="E134">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>1668</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>0.4222737819025522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0.2</v>
+      </c>
+      <c r="I134">
+        <v>430</v>
+      </c>
+      <c r="J134">
+        <v>1678</v>
+      </c>
+      <c r="K134">
+        <v>0.4232558139534884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3494,16 +5114,28 @@
         <v>10</v>
       </c>
       <c r="E135">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F135">
-        <v>-3778</v>
+        <v>40</v>
       </c>
       <c r="G135">
-        <v>0.3989501312335958</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135">
+        <v>380</v>
+      </c>
+      <c r="J135">
+        <v>-3768</v>
+      </c>
+      <c r="K135">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3517,16 +5149,28 @@
         <v>10</v>
       </c>
       <c r="E136">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="F136">
-        <v>-3136</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0.3883792048929663</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="I136">
+        <v>326</v>
+      </c>
+      <c r="J136">
+        <v>-3126</v>
+      </c>
+      <c r="K136">
+        <v>0.3895705521472393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3540,16 +5184,28 @@
         <v>10</v>
       </c>
       <c r="E137">
-        <v>4347</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>-110</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0.505175983436853</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>0.2</v>
+      </c>
+      <c r="I137">
+        <v>4346</v>
+      </c>
+      <c r="J137">
+        <v>-100</v>
+      </c>
+      <c r="K137">
+        <v>0.5052922227335481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3563,16 +5219,28 @@
         <v>10</v>
       </c>
       <c r="E138">
-        <v>2404</v>
+        <v>384</v>
       </c>
       <c r="F138">
-        <v>-4856</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>0.46630615640599</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0.2</v>
+      </c>
+      <c r="I138">
+        <v>2403</v>
+      </c>
+      <c r="J138">
+        <v>-4846</v>
+      </c>
+      <c r="K138">
+        <v>0.4665002080732418</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3586,16 +5254,28 @@
         <v>10</v>
       </c>
       <c r="E139">
-        <v>1428</v>
+        <v>384</v>
       </c>
       <c r="F139">
-        <v>3134</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>0.4390756302521008</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>0.2</v>
+      </c>
+      <c r="I139">
+        <v>1427</v>
+      </c>
+      <c r="J139">
+        <v>3144</v>
+      </c>
+      <c r="K139">
+        <v>0.4393833216538192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3609,16 +5289,28 @@
         <v>10</v>
       </c>
       <c r="E140">
-        <v>943</v>
+        <v>384</v>
       </c>
       <c r="F140">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>0.4040296924708378</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>0.2</v>
+      </c>
+      <c r="I140">
+        <v>942</v>
+      </c>
+      <c r="J140">
+        <v>200</v>
+      </c>
+      <c r="K140">
+        <v>0.4044585987261147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3632,16 +5324,28 @@
         <v>10</v>
       </c>
       <c r="E141">
-        <v>699</v>
+        <v>384</v>
       </c>
       <c r="F141">
-        <v>-568</v>
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>0.3962804005722461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>698</v>
+      </c>
+      <c r="J141">
+        <v>-558</v>
+      </c>
+      <c r="K141">
+        <v>0.3968481375358166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3655,16 +5359,28 @@
         <v>10</v>
       </c>
       <c r="E142">
-        <v>555</v>
+        <v>384</v>
       </c>
       <c r="F142">
-        <v>-3614</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>0.3891891891891892</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H142">
+        <v>0.2</v>
+      </c>
+      <c r="I142">
+        <v>554</v>
+      </c>
+      <c r="J142">
+        <v>-3604</v>
+      </c>
+      <c r="K142">
+        <v>0.3898916967509025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3678,16 +5394,28 @@
         <v>10</v>
       </c>
       <c r="E143">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="F143">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>0.4157303370786517</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <v>444</v>
+      </c>
+      <c r="J143">
+        <v>314</v>
+      </c>
+      <c r="K143">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3701,16 +5429,28 @@
         <v>10</v>
       </c>
       <c r="E144">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F144">
-        <v>-1146</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>0.4041994750656168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>380</v>
+      </c>
+      <c r="J144">
+        <v>-1136</v>
+      </c>
+      <c r="K144">
+        <v>0.4052631578947368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3724,16 +5464,28 @@
         <v>10</v>
       </c>
       <c r="E145">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <v>-652</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>0.3843843843843844</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H145">
+        <v>0.2</v>
+      </c>
+      <c r="I145">
+        <v>332</v>
+      </c>
+      <c r="J145">
+        <v>-642</v>
+      </c>
+      <c r="K145">
+        <v>0.3855421686746988</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3747,16 +5499,28 @@
         <v>10</v>
       </c>
       <c r="E146">
-        <v>4363</v>
+        <v>384</v>
       </c>
       <c r="F146">
-        <v>-1840</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0.5044694017877607</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <v>4362</v>
+      </c>
+      <c r="J146">
+        <v>-1830</v>
+      </c>
+      <c r="K146">
+        <v>0.5045850527281064</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3770,16 +5534,28 @@
         <v>10</v>
       </c>
       <c r="E147">
-        <v>2406</v>
+        <v>384</v>
       </c>
       <c r="F147">
-        <v>-4500</v>
+        <v>40</v>
       </c>
       <c r="G147">
-        <v>0.4659185369908562</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <v>2405</v>
+      </c>
+      <c r="J147">
+        <v>-4490</v>
+      </c>
+      <c r="K147">
+        <v>0.4661122661122661</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3793,16 +5569,28 @@
         <v>10</v>
       </c>
       <c r="E148">
-        <v>1434</v>
+        <v>384</v>
       </c>
       <c r="F148">
-        <v>3178</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>0.4379358437935844</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0.2</v>
+      </c>
+      <c r="I148">
+        <v>1433</v>
+      </c>
+      <c r="J148">
+        <v>3188</v>
+      </c>
+      <c r="K148">
+        <v>0.4382414515003489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3816,16 +5604,28 @@
         <v>10</v>
       </c>
       <c r="E149">
-        <v>943</v>
+        <v>384</v>
       </c>
       <c r="F149">
-        <v>2512</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>0.4125132555673383</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0.2</v>
+      </c>
+      <c r="I149">
+        <v>942</v>
+      </c>
+      <c r="J149">
+        <v>2522</v>
+      </c>
+      <c r="K149">
+        <v>0.4129511677282378</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3839,16 +5639,28 @@
         <v>10</v>
       </c>
       <c r="E150">
-        <v>703</v>
+        <v>384</v>
       </c>
       <c r="F150">
-        <v>-826</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>0.395448079658606</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>702</v>
+      </c>
+      <c r="J150">
+        <v>-816</v>
+      </c>
+      <c r="K150">
+        <v>0.396011396011396</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3862,16 +5674,28 @@
         <v>10</v>
       </c>
       <c r="E151">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="F151">
-        <v>-5520</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>0.3778966131907308</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>560</v>
+      </c>
+      <c r="J151">
+        <v>-5510</v>
+      </c>
+      <c r="K151">
+        <v>0.3785714285714286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3885,16 +5709,28 @@
         <v>10</v>
       </c>
       <c r="E152">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F152">
-        <v>1218</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>0.4183445190156599</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>446</v>
+      </c>
+      <c r="J152">
+        <v>1228</v>
+      </c>
+      <c r="K152">
+        <v>0.4192825112107623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3908,16 +5744,28 @@
         <v>10</v>
       </c>
       <c r="E153">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F153">
-        <v>-1448</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>0.4099216710182768</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>0.2</v>
+      </c>
+      <c r="I153">
+        <v>382</v>
+      </c>
+      <c r="J153">
+        <v>-1438</v>
+      </c>
+      <c r="K153">
+        <v>0.4109947643979058</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3931,13 +5779,25 @@
         <v>10</v>
       </c>
       <c r="E154">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="F154">
-        <v>-854</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>0.3813813813813814</v>
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>0.2</v>
+      </c>
+      <c r="I154">
+        <v>332</v>
+      </c>
+      <c r="J154">
+        <v>-844</v>
+      </c>
+      <c r="K154">
+        <v>0.3825301204819277</v>
       </c>
     </row>
   </sheetData>
